--- a/Assets/Resources/MasterData/PlayerStatus.xlsx
+++ b/Assets/Resources/MasterData/PlayerStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\Demo\DemoPinchHitter\PinchHitterDemo\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C50A84C-455D-4288-9F9D-234195AF422C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D806DC52-7363-4E5C-BF80-FB420A097484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="-14640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerStatus" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>rawAttack</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>attackPinchPer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AddAttackValue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShortenIntervalValue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExpansionAttackArea</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -100,10 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -384,20 +397,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -407,16 +422,34 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>90</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/PlayerStatus.xlsx
+++ b/Assets/Resources/MasterData/PlayerStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\Demo\DemoPinchHitter\PinchHitterDemo\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D806DC52-7363-4E5C-BF80-FB420A097484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9EC58-C6A0-44E5-B9A8-75033F999986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerStatus" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>rawAttack</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>ExpansionAttackArea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rawLimitTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExtentedTime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -397,22 +405,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -423,18 +434,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -442,14 +459,20 @@
       <c r="C2" s="1">
         <v>90</v>
       </c>
-      <c r="D2" s="3">
-        <v>2</v>
+      <c r="D2" s="1">
+        <v>20</v>
       </c>
       <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.05</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>1.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/PlayerStatus.xlsx
+++ b/Assets/Resources/MasterData/PlayerStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\Demo\DemoPinchHitter\PinchHitterDemo\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9EC58-C6A0-44E5-B9A8-75033F999986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6699341D-355F-46AD-9CD8-A085330E785A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -408,7 +411,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -463,13 +466,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
         <v>0.05</v>
       </c>
       <c r="G2" s="3">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H2" s="3">
         <v>5</v>
